--- a/uploads/FGWHHMG0N01_eco_report.xlsx
+++ b/uploads/FGWHHMG0N01_eco_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,147 +478,120 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-28.00</t>
+          <t>-43.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>44.00%</t>
+          <t>14.00%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Glayds  Bundotich</t>
+          <t>Jane Gichohi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-18.00</t>
+          <t>-25.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>28.00%</t>
+          <t>16.67%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jane Gichohi</t>
+          <t>Mirriam Makau</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-17.00</t>
+          <t>-24.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>43.33%</t>
+          <t>4.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mirriam Makau</t>
+          <t>Victor Njogu</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-21.00</t>
+          <t>-39.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>16.00%</t>
+          <t>2.50%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Victor Njogu</t>
+          <t>KD Totals</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>145.00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-35.00</t>
+          <t>-131.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12.50%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>KD Totals</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>170.00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-119.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>28.77%</t>
+          <t>37.17%</t>
         </is>
       </c>
     </row>
